--- a/Base/Backlog_12.xlsx
+++ b/Base/Backlog_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628C411-FF9D-43E1-93F5-6CD2057FD54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79167E27-0C86-4BD9-8C65-C52CA693B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>Alana Neris</t>
   </si>
   <si>
-    <t>Erick Silva</t>
-  </si>
-  <si>
     <t>Arthur Hassuma</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Erick da Silva</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -654,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="23">
         <v>2025</v>
@@ -678,7 +678,7 @@
         <v>45740</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>19</v>
@@ -689,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="23">
         <v>2025</v>
@@ -713,7 +713,7 @@
         <v>45740</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>19</v>
@@ -748,7 +748,7 @@
         <v>45740</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>19</v>
@@ -783,7 +783,7 @@
         <v>45740</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>19</v>
@@ -794,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="23">
         <v>2025</v>
@@ -818,7 +818,7 @@
         <v>45740</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>19</v>
@@ -829,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="23">
         <v>2025</v>
@@ -853,7 +853,7 @@
         <v>45740</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>19</v>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
         <v>45740</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>11</v>
@@ -1093,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18">
         <v>2025</v>
@@ -1117,7 +1117,7 @@
         <v>45740</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="18">
         <v>2025</v>
@@ -1152,7 +1152,7 @@
         <v>45740</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="18">
         <v>2025</v>
@@ -1187,7 +1187,7 @@
         <v>45740</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>11</v>
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="18">
         <v>2025</v>
@@ -1222,7 +1222,7 @@
         <v>45740</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>11</v>
@@ -1233,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="18">
         <v>2025</v>
@@ -1257,7 +1257,7 @@
         <v>45740</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>11</v>
@@ -1268,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="18">
         <v>2025</v>
@@ -1292,7 +1292,7 @@
         <v>45740</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>11</v>
@@ -1303,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="18">
         <v>2025</v>
@@ -1327,7 +1327,7 @@
         <v>45740</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>11</v>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="18">
         <v>2025</v>
@@ -1362,7 +1362,7 @@
         <v>45740</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>11</v>
@@ -1373,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="18">
         <v>2025</v>
@@ -1397,7 +1397,7 @@
         <v>45740</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="18">
         <v>2025</v>
@@ -1432,7 +1432,7 @@
         <v>45740</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>11</v>
@@ -1443,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="18">
         <v>2025</v>
@@ -1467,7 +1467,7 @@
         <v>45740</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="18">
         <v>2025</v>
@@ -1502,7 +1502,7 @@
         <v>45740</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>11</v>
@@ -1513,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="18">
         <v>2025</v>
@@ -1537,7 +1537,7 @@
         <v>45740</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>11</v>
@@ -1548,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="18">
         <v>2025</v>
@@ -1572,7 +1572,7 @@
         <v>45740</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>11</v>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="18">
         <v>2025</v>
@@ -1607,7 +1607,7 @@
         <v>45740</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="18">
         <v>2025</v>
@@ -1642,7 +1642,7 @@
         <v>45740</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>11</v>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="18">
         <v>2025</v>
@@ -1677,7 +1677,7 @@
         <v>45740</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>11</v>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" s="18">
         <v>2025</v>
@@ -1712,7 +1712,7 @@
         <v>45740</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>11</v>
@@ -1723,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" s="18">
         <v>2025</v>
@@ -1747,7 +1747,7 @@
         <v>45740</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>11</v>
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="18">
         <v>2025</v>
@@ -1782,7 +1782,7 @@
         <v>45740</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>11</v>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C23" s="18">
         <v>2025</v>
@@ -1817,7 +1817,7 @@
         <v>45740</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>11</v>
@@ -1828,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24" s="18">
         <v>2025</v>
@@ -1852,7 +1852,7 @@
         <v>45740</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>11</v>
@@ -1887,7 +1887,7 @@
         <v>45740</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>11</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="18">
         <v>2025</v>
@@ -1992,7 +1992,7 @@
         <v>45740</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>11</v>
@@ -2027,7 +2027,7 @@
         <v>45740</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="18" t="s">
         <v>11</v>
@@ -2062,7 +2062,7 @@
         <v>45740</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>11</v>
@@ -2097,7 +2097,7 @@
         <v>45740</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>11</v>
@@ -2132,7 +2132,7 @@
         <v>45740</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>11</v>
@@ -2167,7 +2167,7 @@
         <v>45740</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>11</v>
@@ -2202,7 +2202,7 @@
         <v>45740</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>11</v>
@@ -2237,7 +2237,7 @@
         <v>45740</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" s="18" t="s">
         <v>11</v>
@@ -2307,7 +2307,7 @@
         <v>45740</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K37" s="18" t="s">
         <v>11</v>
